--- a/schemadb.xlsx
+++ b/schemadb.xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\stock-control\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{124BDB4A-CEB6-41F3-BF39-44E5A0E71309}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3CBFAFD-6524-489D-8E95-B1B84891BAC1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9048" xr2:uid="{271B9E08-F761-414E-B86A-80B93252ACBD}"/>
   </bookViews>
   <sheets>
-    <sheet name="customers" sheetId="1" r:id="rId1"/>
-    <sheet name="items" sheetId="3" r:id="rId2"/>
-    <sheet name="records" sheetId="5" r:id="rId3"/>
-    <sheet name="orders" sheetId="6" r:id="rId4"/>
+    <sheet name="Schema" sheetId="8" r:id="rId1"/>
+    <sheet name="ERP" sheetId="7" r:id="rId2"/>
+    <sheet name="flow-work" sheetId="9" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,10 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
-  <si>
-    <t>code_cus</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="68">
   <si>
     <t>customer</t>
   </si>
@@ -42,38 +38,206 @@
     <t>address</t>
   </si>
   <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>plant</t>
-  </si>
-  <si>
-    <t>part_no</t>
-  </si>
-  <si>
     <t>item</t>
   </si>
   <si>
     <t>status</t>
   </si>
   <si>
-    <t>id_orders</t>
-  </si>
-  <si>
-    <t>date_order</t>
-  </si>
-  <si>
-    <t>total</t>
-  </si>
-  <si>
     <t>remark</t>
+  </si>
+  <si>
+    <t>STANDAR ERP WAREHOUSE SOLUTION</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Keterangan</t>
+  </si>
+  <si>
+    <t>Reverse Logistics</t>
+  </si>
+  <si>
+    <t>Shipping Management</t>
+  </si>
+  <si>
+    <t>Dock &amp; Yard Management</t>
+  </si>
+  <si>
+    <t>Real Time Stock Level</t>
+  </si>
+  <si>
+    <t>Inventory Analytics</t>
+  </si>
+  <si>
+    <t>Barcode Scanning</t>
+  </si>
+  <si>
+    <t>Serial Number Tracking</t>
+  </si>
+  <si>
+    <t>Full Traceability</t>
+  </si>
+  <si>
+    <t>Automatic Transactions</t>
+  </si>
+  <si>
+    <t>Double Entry Inverntory Management</t>
+  </si>
+  <si>
+    <t>Serial number memungkinkan Anda untuk melacak setiap produk satu per satu. Dengan melihat serial number, Anda dapat mengidentifikasi lokasi produk, status inventaris (misalnya, stok atau dijual), dan informasi terkait lainnya.</t>
+  </si>
+  <si>
+    <t>Pengertian dari Reverse Logistic adalah proses pemindahan suatu barang / kepemilikan barang dari konsumen menuju distributor, untuk memanfaatkan kembali kegunaan suatu barang atau juga bisa karena barang tersebut rusak / tidak sesuai permintaan.</t>
+  </si>
+  <si>
+    <t>Ship management merupakan kegiatan pengelolaan serangkaian aktivitas di atas kapal yang mencakup seluruh aspek kegiatan pengoperasian kapal sehari-hari untuk mencapai tujuan perusahaan pelayaran</t>
+  </si>
+  <si>
+    <t>Manajemen dermaga mengacu pada koordinasi kegiatan di jalur pemuatan, termasuk barang masuk dan keluar serta penanganan truk yang datang dan berangkat di jalur pemuatan. Manajemen halaman mengendalikan semua aktivitas di lokasi pabrik. Ini termasuk kendaraan pihak ketiga dan kendaraan milik perusahaan. Manajemen halaman mengumpulkan dan mengevaluasi semua informasi tentang kendaraan di lokasi pabrik.</t>
+  </si>
+  <si>
+    <t>Monitoring Stock Level secara realtime</t>
+  </si>
+  <si>
+    <t>Inventory Analytics adalah suatu konsep yang menggabungkan elemen analisis data dan informasi terkait persediaan suatu perusahaan. Ini melibatkan penggunaan teknik analisis data untuk memahami, mengukur, dan meningkatkan kinerja manajemen persediaan</t>
+  </si>
+  <si>
+    <t>Traceability adalah sistem pencatatan yang digunakan untuk melacak aliran produk proses produksi atau rantai pasokan (Golan et al, 2004). Sistem ini penting karena dapat membantu mengurangi resiko dan biaya terkait kontaminasi produk (Hobbs, 2003)</t>
+  </si>
+  <si>
+    <t>Automatic Transactions dalam manajemen gudang ERP merujuk pada proses otomatisasi berbagai transaksi operasional di dalam gudang yang biasanya dilakukan secara manual. Ini bertujuan untuk meningkatkan efisiensi, akurasi, dan produktivitas dalam pengelolaan inventaris dan proses terkait.</t>
+  </si>
+  <si>
+    <t>Double Entry Inventory Management adalah konsep manajemen inventaris yang diadaptasi dari prinsip akuntansi double-entry. Dalam konteks manajemen inventaris, sistem ini memastikan bahwa setiap transaksi yang mempengaruhi inventaris memiliki dua entri: satu untuk debit dan satu untuk kredit, sehingga total saldo inventaris tetap seimbang.</t>
+  </si>
+  <si>
+    <t>Barcode Scanning atau pemindaian barcode adalah proses menggunakan perangkat pemindai untuk membaca dan mendekode informasi yang tersimpan dalam kode batang (barcode). Barcode adalah serangkaian garis paralel dan spasi dengan lebar yang bervariasi, yang mewakili data yang dapat dibaca oleh mesin. Barcode sering digunakan untuk pelacakan inventaris, penjualan ritel, dan berbagai aplikasi lainnya di berbagai industri.</t>
+  </si>
+  <si>
+    <t>ENTERPRISE RESOURCE PLANNING</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>truck</t>
+  </si>
+  <si>
+    <t>code_truck</t>
+  </si>
+  <si>
+    <t>name_truck</t>
+  </si>
+  <si>
+    <t>jenis_truck</t>
+  </si>
+  <si>
+    <t>transaction</t>
+  </si>
+  <si>
+    <t>Part Number</t>
+  </si>
+  <si>
+    <t>detail_transaction</t>
+  </si>
+  <si>
+    <t>amount</t>
+  </si>
+  <si>
+    <t>Rack_items</t>
+  </si>
+  <si>
+    <t>name_items</t>
+  </si>
+  <si>
+    <t>id_item</t>
+  </si>
+  <si>
+    <t>id_truk</t>
+  </si>
+  <si>
+    <t>id_transaction</t>
+  </si>
+  <si>
+    <t>date_transaction</t>
+  </si>
+  <si>
+    <t>id_customer</t>
+  </si>
+  <si>
+    <t>id_detail_transaction</t>
+  </si>
+  <si>
+    <t>reverse_logistic</t>
+  </si>
+  <si>
+    <t>part_Number/SKU</t>
+  </si>
+  <si>
+    <t>id_reverse</t>
+  </si>
+  <si>
+    <t>supplier</t>
+  </si>
+  <si>
+    <t>id_supplier</t>
+  </si>
+  <si>
+    <t>name_supplier</t>
+  </si>
+  <si>
+    <t>detail_material</t>
+  </si>
+  <si>
+    <t>id_detail_material</t>
+  </si>
+  <si>
+    <t>name_material</t>
+  </si>
+  <si>
+    <t>part_No_Material</t>
+  </si>
+  <si>
+    <t>detail_reverse</t>
+  </si>
+  <si>
+    <t>id_detail_reverse</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>in/out</t>
+  </si>
+  <si>
+    <t>rotation</t>
+  </si>
+  <si>
+    <t>id_rotation</t>
+  </si>
+  <si>
+    <t>id_truck</t>
+  </si>
+  <si>
+    <t>id_in/out</t>
+  </si>
+  <si>
+    <t>items</t>
+  </si>
+  <si>
+    <t>phone_customer</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -81,18 +245,70 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
       <top/>
       <bottom/>
@@ -102,8 +318,43 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="180"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -417,27 +668,202 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA4BD63D-9BAC-49FB-B93E-E41C0E762A6E}">
-  <dimension ref="A1:D1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9CFEDE3-437E-4EEA-9EE0-401BBB5B5BC5}">
+  <dimension ref="A2:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.88671875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="I2" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>50</v>
+      </c>
+      <c r="K3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I4" t="s">
+        <v>44</v>
+      </c>
+      <c r="K4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" t="s">
+        <v>45</v>
+      </c>
+      <c r="G5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="I5" t="s">
+        <v>5</v>
+      </c>
+      <c r="K5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" t="s">
+        <v>2</v>
+      </c>
+      <c r="I6" t="s">
+        <v>60</v>
+      </c>
+      <c r="K6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="G7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="K9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" t="s">
+        <v>63</v>
+      </c>
+      <c r="E10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>50</v>
+      </c>
+      <c r="K10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11" t="s">
+        <v>64</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="I11" t="s">
+        <v>59</v>
+      </c>
+      <c r="K11" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" t="s">
+        <v>37</v>
+      </c>
+      <c r="I12" t="s">
+        <v>37</v>
+      </c>
+      <c r="K12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13" t="s">
+        <v>39</v>
+      </c>
+      <c r="I13" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -446,94 +872,172 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05238633-B9C9-406C-8F35-0506F4BDD166}">
-  <dimension ref="A1:E1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC07375B-1EC2-4BA0-9C64-728D048A1A1F}">
+  <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="2"/>
+    <col min="2" max="2" width="32.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="47.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" s="1" customFormat="1" ht="87" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="6">
+        <v>2</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="129.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="13"/>
+    </row>
+    <row r="6" spans="1:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="B6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="96.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
         <v>5</v>
       </c>
-      <c r="D1" t="s">
+      <c r="B7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
+      <c r="B8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
         <v>7</v>
       </c>
+      <c r="B9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
+        <v>8</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="99.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="3">
+        <v>9</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="109.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="3">
+        <v>10</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>28</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D4:D5"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90BAC884-EAD3-40CA-BBE4-1E18D3FCD7B3}">
-  <dimension ref="A1:C1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFCDAE3F-B97D-4A5C-9243-AE072C145A41}">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3D59EE0-5B0E-44DF-B0EF-B2F10EE27FB2}">
-  <dimension ref="A1:F1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>